--- a/biology/Botanique/Sabaudiella_(plante)/Sabaudiella_(plante).xlsx
+++ b/biology/Botanique/Sabaudiella_(plante)/Sabaudiella_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hildebrandtia est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre a pour synonymes hétérotypiques[2], :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre a pour synonymes hétérotypiques, :
 Sabaudiella Chiov., Nuovo Giorn. Bot. Ital., n.s., 36: 366 (1929).
 Pterochlamys Roberty, Candollea 14: 23 (1952).
 Dactylostigma D.F.Austin, Phytologia 25: 426 (1973).</t>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Hildebrandtia sont présentes en Afrique tropicale de l’est et du nord-est (Éthiopie, Somalie, Kénya, Tanzanie et Ouganda), à Madagascar et dans la péninsule arabique (Oman, Arabie saoudite et Yémen)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Hildebrandtia sont présentes en Afrique tropicale de l’est et du nord-est (Éthiopie, Somalie, Kénya, Tanzanie et Ouganda), à Madagascar et dans la péninsule arabique (Oman, Arabie saoudite et Yémen).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces, variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (7 mai 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (7 mai 2020) :
 Hildebrandtia africana Vatke (1876)
 sous-espèce Hildebrandtia africana subsp. africana
 sous-espèce Hildebrandtia africana subsp. arabica Sebsebe (1996)
@@ -593,7 +611,7 @@
 Hildebrandtia sericea Hutch. &amp; E.A.Bruce (1941)
 Hildebrandtia somalensis Engl. ex Peter (1891)
 Hildebrandtia valo Deroin (1996)
-Selon Tropicos                                           (7 mai 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 mai 2020) (Attention liste brute contenant possiblement des synonymes) :
 Hildebrandtia africana Vatke
 Hildebrandtia austinii Staples
 Hildebrandtia linearifolia Verdc.
